--- a/data/trans_orig/P1415-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>12520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6954</v>
+        <v>6232</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22493</v>
+        <v>21047</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01199288524700076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006661189690993981</v>
+        <v>0.005969751464717984</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02154638675725866</v>
+        <v>0.02016122504702781</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -763,19 +763,19 @@
         <v>18962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11128</v>
+        <v>11704</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30022</v>
+        <v>30225</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01695074427031257</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00994763421319165</v>
+        <v>0.01046282375245753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02683748545209384</v>
+        <v>0.02701909904460864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -784,19 +784,19 @@
         <v>31482</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21583</v>
+        <v>21696</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46609</v>
+        <v>46449</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01455746263664109</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009980356493188441</v>
+        <v>0.01003250027207745</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02155247546848796</v>
+        <v>0.02147865769477051</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1031415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1021442</v>
+        <v>1022888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1036981</v>
+        <v>1037703</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9880071147529993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9784536132427408</v>
+        <v>0.9798387749529726</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9933388103090059</v>
+        <v>0.994030248535282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1013</v>
@@ -834,19 +834,19 @@
         <v>1099691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1088631</v>
+        <v>1088428</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1107525</v>
+        <v>1106949</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9830492557296874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9731625145479063</v>
+        <v>0.9729809009553912</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9900523657868084</v>
+        <v>0.9895371762475424</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1980</v>
@@ -855,19 +855,19 @@
         <v>2131106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2115979</v>
+        <v>2116139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2141005</v>
+        <v>2140892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.985442537363359</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9784475245315123</v>
+        <v>0.9785213423052295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900196435068118</v>
+        <v>0.9899674997279225</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>20384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12878</v>
+        <v>12433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30977</v>
+        <v>32228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0208626378397369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01318043845216719</v>
+        <v>0.01272451402929162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03170414126395554</v>
+        <v>0.03298436748723353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -980,19 +980,19 @@
         <v>8278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3193</v>
+        <v>4065</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16082</v>
+        <v>16724</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00757847208789731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002923553885632148</v>
+        <v>0.00372139401220498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01472239058087698</v>
+        <v>0.01531010243643883</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1001,19 +1001,19 @@
         <v>28662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19503</v>
+        <v>18308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42495</v>
+        <v>42679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01385062766612712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009424347494622627</v>
+        <v>0.00884694184253652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02053478572855082</v>
+        <v>0.02062402156740231</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>956689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>946096</v>
+        <v>944845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964195</v>
+        <v>964640</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9791373621602631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9682958587360442</v>
+        <v>0.9670156325127669</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868195615478328</v>
+        <v>0.9872754859707087</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1011</v>
@@ -1051,19 +1051,19 @@
         <v>1084049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1076245</v>
+        <v>1075603</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1089134</v>
+        <v>1088262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9924215279121027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.985277609419123</v>
+        <v>0.9846898975635612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9970764461143679</v>
+        <v>0.9962786059877951</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1916</v>
@@ -1072,19 +1072,19 @@
         <v>2040738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2026905</v>
+        <v>2026721</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2049897</v>
+        <v>2051092</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9861493723338729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9794652142714492</v>
+        <v>0.9793759784325977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9905756525053774</v>
+        <v>0.9911530581574635</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>7247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3084</v>
+        <v>3057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14674</v>
+        <v>14713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008187795861108398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003483967206152635</v>
+        <v>0.003453290112673798</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01657899307573968</v>
+        <v>0.0166224509679474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1197,19 +1197,19 @@
         <v>6803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2858</v>
+        <v>2938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12648</v>
+        <v>13172</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007767751873387345</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0032632877075841</v>
+        <v>0.003354409487179884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01444171545564763</v>
+        <v>0.01504040079237125</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1218,19 +1218,19 @@
         <v>14050</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7970</v>
+        <v>7982</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23578</v>
+        <v>23198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007978885373490808</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004525807228556395</v>
+        <v>0.004532794174964229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01338979771185487</v>
+        <v>0.01317363330686694</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>877868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>870441</v>
+        <v>870402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>882031</v>
+        <v>882058</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9918122041388916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9834210069242605</v>
+        <v>0.9833775490320528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965160327938474</v>
+        <v>0.9965467098873262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>814</v>
@@ -1268,19 +1268,19 @@
         <v>868993</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>863148</v>
+        <v>862624</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>872938</v>
+        <v>872858</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9922322481266127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9855582845443523</v>
+        <v>0.9849595992076284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9967367122924159</v>
+        <v>0.9966455905128201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1637</v>
@@ -1289,19 +1289,19 @@
         <v>1746861</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1737333</v>
+        <v>1737713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1752941</v>
+        <v>1752929</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9920211146265092</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9866102022881452</v>
+        <v>0.9868263666931332</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9954741927714437</v>
+        <v>0.9954672058250358</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>16819</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9436</v>
+        <v>9287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28445</v>
+        <v>28512</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03343588066294364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01875828365610391</v>
+        <v>0.01846270281770321</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05654905059440156</v>
+        <v>0.05668072816213363</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>3086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8303</v>
+        <v>8372</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006815557230427928</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002215563525510493</v>
+        <v>0.002175439612746893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01833886224168908</v>
+        <v>0.01849135909102322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1435,19 +1435,19 @@
         <v>19905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11611</v>
+        <v>12170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33182</v>
+        <v>33446</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02082603112594355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01214830428614617</v>
+        <v>0.01273343369502596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03471765551983149</v>
+        <v>0.0349943709784627</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>486204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>474578</v>
+        <v>474511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>493587</v>
+        <v>493736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9665641193370563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9434509494055984</v>
+        <v>0.9433192718378663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.981241716343896</v>
+        <v>0.9815372971822968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>409</v>
@@ -1485,19 +1485,19 @@
         <v>449650</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>444433</v>
+        <v>444364</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>451733</v>
+        <v>451751</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9931844427695721</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9816611377583109</v>
+        <v>0.9815086409089767</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9977844364744894</v>
+        <v>0.9978245603872531</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>857</v>
@@ -1506,19 +1506,19 @@
         <v>935853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>922576</v>
+        <v>922312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>944147</v>
+        <v>943588</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9791739688740565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.965282344480168</v>
+        <v>0.9650056290215376</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9878516957138538</v>
+        <v>0.9872665663049741</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>56970</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42928</v>
+        <v>43385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75084</v>
+        <v>75092</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01671100733499561</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01259197858296226</v>
+        <v>0.0127261240919423</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02202423363155302</v>
+        <v>0.02202671801085157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1631,19 +1631,19 @@
         <v>37129</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26550</v>
+        <v>26674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51253</v>
+        <v>50831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0104898037212613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00750106077339973</v>
+        <v>0.007536085065890717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01448037429763543</v>
+        <v>0.01436091091713794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1652,19 +1652,19 @@
         <v>94099</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74383</v>
+        <v>75272</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117602</v>
+        <v>118212</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01354204656432271</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01070463872379302</v>
+        <v>0.0108326158295789</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0169244481219082</v>
+        <v>0.01701224983436149</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3352175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3334061</v>
+        <v>3334053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3366217</v>
+        <v>3365760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9832889926650044</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.977975766368447</v>
+        <v>0.9779732819891485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9874080214170377</v>
+        <v>0.9872738759080576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3247</v>
@@ -1702,19 +1702,19 @@
         <v>3502382</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3488258</v>
+        <v>3488680</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3512961</v>
+        <v>3512837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9895101962787387</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9855196257023646</v>
+        <v>0.9856390890828621</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9924989392266003</v>
+        <v>0.9924639149341093</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6390</v>
@@ -1723,19 +1723,19 @@
         <v>6854558</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6831055</v>
+        <v>6830445</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6874274</v>
+        <v>6873385</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9864579534356773</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9830755518780917</v>
+        <v>0.982987750165639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.989295361276207</v>
+        <v>0.9891673841704212</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>8568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4069</v>
+        <v>4585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15837</v>
+        <v>15685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007595498197379955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003606893261873209</v>
+        <v>0.004064514998402595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01403991258506692</v>
+        <v>0.01390540955835495</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2088,19 +2088,19 @@
         <v>20171</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11830</v>
+        <v>12806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29581</v>
+        <v>31045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01601467151884036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009391854450729703</v>
+        <v>0.01016671446768416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0234853303026536</v>
+        <v>0.0246476031185999</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2109,19 +2109,19 @@
         <v>28739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19513</v>
+        <v>19944</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41262</v>
+        <v>42590</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01203704911699411</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008172632353738263</v>
+        <v>0.008353225716022865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01728228248044526</v>
+        <v>0.01783835414508425</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>1119429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1112160</v>
+        <v>1112312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1123928</v>
+        <v>1123412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9924045018026201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.985960087414933</v>
+        <v>0.986094590441645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9963931067381268</v>
+        <v>0.9959354850015975</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1169</v>
@@ -2159,19 +2159,19 @@
         <v>1239390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1229980</v>
+        <v>1228516</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1247731</v>
+        <v>1246755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9839853284811596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9765146696973463</v>
+        <v>0.9753523968813999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9906081455492702</v>
+        <v>0.9898332855323158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2226</v>
@@ -2180,19 +2180,19 @@
         <v>2358819</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2346296</v>
+        <v>2344968</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2368045</v>
+        <v>2367614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9879629508830059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9827177175195547</v>
+        <v>0.9821616458549157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9918273676462617</v>
+        <v>0.9916467742839771</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>15016</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8729</v>
+        <v>9023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24185</v>
+        <v>26068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01652263988656813</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009604975743502423</v>
+        <v>0.009927784929885983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02661085155251681</v>
+        <v>0.02868281789467782</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2305,19 +2305,19 @@
         <v>12824</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6896</v>
+        <v>6952</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22528</v>
+        <v>22073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01274128617302446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006851746162505605</v>
+        <v>0.006907762129317326</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02238313929997729</v>
+        <v>0.02193091888210836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2326,19 +2326,19 @@
         <v>27840</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18126</v>
+        <v>18521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39627</v>
+        <v>40105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01453556791326526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009463611609125096</v>
+        <v>0.009670046956311356</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0206896341598915</v>
+        <v>0.02093918566902543</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>893809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>884640</v>
+        <v>882757</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>900096</v>
+        <v>899802</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9834773601134319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9733891484474831</v>
+        <v>0.9713171821053221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903950242564975</v>
+        <v>0.990072215070114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>939</v>
@@ -2376,19 +2376,19 @@
         <v>993651</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>983947</v>
+        <v>984402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>999579</v>
+        <v>999523</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9872587138269755</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9776168607000226</v>
+        <v>0.9780690811178916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9931482538374944</v>
+        <v>0.9930922378706827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1805</v>
@@ -2397,19 +2397,19 @@
         <v>1887460</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1875673</v>
+        <v>1875195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1897174</v>
+        <v>1896779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9854644320867347</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9793103658401086</v>
+        <v>0.9790608143309746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.990536388390875</v>
+        <v>0.9903299530436886</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>8006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3245</v>
+        <v>3338</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16318</v>
+        <v>15635</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009718606956478052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003939348431382647</v>
+        <v>0.004051612510329087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01980881613819265</v>
+        <v>0.01897949077651065</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2522,19 +2522,19 @@
         <v>15304</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8925</v>
+        <v>8297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24535</v>
+        <v>23870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01984797134024736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01157521803258852</v>
+        <v>0.0107605451048025</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03182042498756756</v>
+        <v>0.03095784743970035</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -2543,19 +2543,19 @@
         <v>23310</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15096</v>
+        <v>14349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34226</v>
+        <v>34733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0146159272452843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009465675380077053</v>
+        <v>0.008997302257842505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02146075233746376</v>
+        <v>0.02177882275340722</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>815753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>807441</v>
+        <v>808124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820514</v>
+        <v>820421</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9902813930435219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9801911838618073</v>
+        <v>0.9810205092234894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9960606515686172</v>
+        <v>0.9959483874896708</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>713</v>
@@ -2593,19 +2593,19 @@
         <v>755755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>746524</v>
+        <v>747189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>762134</v>
+        <v>762762</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9801520286597526</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9681795750124323</v>
+        <v>0.9690421525602992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9884247819674115</v>
+        <v>0.9892394548951974</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1493</v>
@@ -2614,19 +2614,19 @@
         <v>1571508</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1560592</v>
+        <v>1560085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1579722</v>
+        <v>1580469</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9853840727547157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9785392476625362</v>
+        <v>0.9782211772465927</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.990534324619923</v>
+        <v>0.9910026977421575</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>3871</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>916</v>
+        <v>1046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9753</v>
+        <v>9153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007639449799799194</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001808195195755659</v>
+        <v>0.002064980592789128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01924882670064772</v>
+        <v>0.01806427501599295</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -2739,19 +2739,19 @@
         <v>8144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3751</v>
+        <v>3178</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17582</v>
+        <v>17446</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01662969834625597</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007660280084104727</v>
+        <v>0.00648894626292445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03590282427986833</v>
+        <v>0.03562673348698472</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -2760,19 +2760,19 @@
         <v>12014</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6016</v>
+        <v>6481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20913</v>
+        <v>21855</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01205786563537476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006037300097978903</v>
+        <v>0.006504712345155145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02098867137604621</v>
+        <v>0.02193388913188619</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>502830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496948</v>
+        <v>497548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505785</v>
+        <v>505655</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9923605502002008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9807511732993519</v>
+        <v>0.9819357249840068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9981918048042443</v>
+        <v>0.9979350194072109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>448</v>
@@ -2810,19 +2810,19 @@
         <v>481554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>472116</v>
+        <v>472252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>485947</v>
+        <v>486520</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9833703016537441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9640971757201314</v>
+        <v>0.9643732665130164</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9923397199158952</v>
+        <v>0.9935110537370756</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>915</v>
@@ -2831,19 +2831,19 @@
         <v>984384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>975485</v>
+        <v>974543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>990382</v>
+        <v>989917</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9879421343646252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9790113286239536</v>
+        <v>0.9780661108681137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.993962699902021</v>
+        <v>0.9934952876548448</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>35461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25329</v>
+        <v>24948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48030</v>
+        <v>48889</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01053092445685068</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007522192646509379</v>
+        <v>0.007408879653591484</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01426379306789382</v>
+        <v>0.01451888368517686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -2956,19 +2956,19 @@
         <v>56443</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41630</v>
+        <v>43589</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72651</v>
+        <v>74301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01600398050878304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01180403073433413</v>
+        <v>0.01235929107291544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02059965577795484</v>
+        <v>0.02106749712015553</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -2977,19 +2977,19 @@
         <v>91903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74347</v>
+        <v>74856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112770</v>
+        <v>113102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01333076828619485</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01078423017588764</v>
+        <v>0.01085802319273055</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01635755451799295</v>
+        <v>0.01640570433398009</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3331821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3319252</v>
+        <v>3318393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3341953</v>
+        <v>3342334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9894690755431493</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9857362069321061</v>
+        <v>0.9854811163148232</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9924778073534902</v>
+        <v>0.9925911203464086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3269</v>
@@ -3027,19 +3027,19 @@
         <v>3470349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3454141</v>
+        <v>3452491</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3485162</v>
+        <v>3483203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.983996019491217</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9794003442220451</v>
+        <v>0.9789325028798445</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9881959692656658</v>
+        <v>0.9876407089270843</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6439</v>
@@ -3048,19 +3048,19 @@
         <v>6802172</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6781305</v>
+        <v>6780973</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6819728</v>
+        <v>6819219</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9866692317138052</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.983642445482007</v>
+        <v>0.9835942956660197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9892157698241124</v>
+        <v>0.9891419768072693</v>
       </c>
     </row>
     <row r="18">
